--- a/Document/MAP_prefab仕様書.xlsx
+++ b/Document/MAP_prefab仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takashi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takashi\Desktop\枕返し仕様書\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2973511E-C78E-499E-B9B8-4A1F84FBBF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC346424-B9B6-4517-89F8-04DF5AEC52F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAP想定プレハブ位置" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>真ん中を中心と想定</t>
     <rPh sb="0" eb="1">
@@ -66,6 +66,16 @@
     </rPh>
     <rPh sb="8" eb="11">
       <t>ヘンコウアリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAPサイズは現段階のものを参照</t>
+    <rPh sb="7" eb="10">
+      <t>ゲンダンカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -190,13 +200,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -831,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B29:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18"/>
@@ -859,7 +868,9 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+      <c r="P30" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -878,71 +889,44 @@
     </row>
     <row r="31" spans="2:31">
       <c r="B31" s="4"/>
-      <c r="C31" s="5" t="s">
+      <c r="C31" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="6"/>
+      <c r="AE31" s="5"/>
     </row>
     <row r="32" spans="2:31" ht="18.600000000000001" thickBot="1">
-      <c r="B32" s="7"/>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="9"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
